--- a/testData/Zigwheels.xlsx
+++ b/testData/Zigwheels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303871\Downloads\IdentifyNewBikes 1\IdentifyNewBikes\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49765BB6-9B12-4B4B-A83A-72C6ECFEB3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85918068-5DEB-400E-96C2-2DA6DB71FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66BD092F-2648-46C0-A01F-C178B2B2D090}"/>
   </bookViews>
@@ -41,16 +41,16 @@
     <t>abc@abc</t>
   </si>
   <si>
-    <t>praveen.mylsamygmail.com</t>
+    <t>pranav.dubeygmail.com</t>
   </si>
   <si>
-    <t>praveen.mylsamy@gmail</t>
+    <t>pranav.eydu@gmail</t>
   </si>
   <si>
-    <t>praveen.myl.com</t>
+    <t>pranav.dubey.com</t>
   </si>
   <si>
-    <t>praveenmylsamy@gmail.com</t>
+    <t>pranavdubey@com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
